--- a/excel_reports/Josh_Musick.xlsx
+++ b/excel_reports/Josh_Musick.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4099" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4113" uniqueCount="1159">
   <si>
     <t>Policy Record</t>
   </si>
@@ -1945,6 +1945,30 @@
     <t>4578453</t>
   </si>
   <si>
+    <t>3192269469</t>
+  </si>
+  <si>
+    <t>8130751</t>
+  </si>
+  <si>
+    <t>Martina</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>11-03-2021</t>
+  </si>
+  <si>
+    <t>12-01-2021</t>
+  </si>
+  <si>
     <t>3173344841</t>
   </si>
   <si>
@@ -3115,27 +3139,6 @@
     <t>03-19-2020</t>
   </si>
   <si>
-    <t>3355620526</t>
-  </si>
-  <si>
-    <t>16193301</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Abkemeier</t>
-  </si>
-  <si>
-    <t>Medicare Value Plan PPO</t>
-  </si>
-  <si>
-    <t>10-31-2022</t>
-  </si>
-  <si>
-    <t>11-01-2022</t>
-  </si>
-  <si>
     <t>3168418635</t>
   </si>
   <si>
@@ -3361,6 +3364,24 @@
     <t>08-09-2021</t>
   </si>
   <si>
+    <t>4026235905</t>
+  </si>
+  <si>
+    <t>Seifert</t>
+  </si>
+  <si>
+    <t>PrimeStar® Value</t>
+  </si>
+  <si>
+    <t>110 - Submitted</t>
+  </si>
+  <si>
+    <t>11-21-2022</t>
+  </si>
+  <si>
+    <t>12-01-2022</t>
+  </si>
+  <si>
     <t>3172148775</t>
   </si>
   <si>
@@ -3472,7 +3493,7 @@
     <t>Copay - Commission:</t>
   </si>
   <si>
-    <t>212</t>
+    <t>213</t>
   </si>
 </sst>
 </file>
@@ -3879,35 +3900,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>1122</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>1123</v>
+        <v>1130</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>1124</v>
+        <v>1131</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>1125</v>
+        <v>1132</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1126</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>1127</v>
+        <v>1134</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -3916,7 +3937,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>1128</v>
+        <v>1135</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -3924,30 +3945,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>1129</v>
+        <v>1136</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1130</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>1131</v>
+        <v>1138</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1132</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>1133</v>
+        <v>1140</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -3956,12 +3977,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>1134</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>1135</v>
+        <v>1142</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -3969,7 +3990,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>1136</v>
+        <v>1143</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -3977,20 +3998,20 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>1137</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>1138</v>
+        <v>1145</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1151</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>1139</v>
+        <v>1146</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -3999,12 +4020,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>1140</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>1141</v>
+        <v>1148</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -4012,15 +4033,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>1142</v>
+        <v>1149</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>1143</v>
+        <v>1150</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -4028,7 +4049,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>1144</v>
+        <v>1151</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -4037,7 +4058,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>1145</v>
+        <v>1152</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -4046,7 +4067,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>1146</v>
+        <v>1153</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -4054,7 +4075,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>1147</v>
+        <v>1154</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -4062,7 +4083,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>1148</v>
+        <v>1155</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -4070,7 +4091,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>1149</v>
+        <v>1156</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -4079,7 +4100,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>1150</v>
+        <v>1157</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -11432,16 +11453,16 @@
         <v>643</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>60</v>
+        <v>644</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>27</v>
+        <v>646</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>28</v>
+        <v>647</v>
       </c>
       <c r="G259" s="6" t="s">
         <v>27</v>
@@ -11450,7 +11471,7 @@
         <v>28</v>
       </c>
       <c r="I259" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J259" s="6" t="s">
         <v>30</v>
@@ -11462,10 +11483,10 @@
         <v>32</v>
       </c>
       <c r="M259" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="N259" t="s">
-        <v>42</v>
+        <v>649</v>
       </c>
       <c r="Q259" s="6" t="s">
         <v>35</v>
@@ -11482,16 +11503,16 @@
     </row>
     <row r="261" spans="1:23">
       <c r="A261" s="9" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="E261" s="6" t="s">
         <v>27</v>
@@ -11518,10 +11539,10 @@
         <v>32</v>
       </c>
       <c r="M261" t="s">
-        <v>534</v>
+        <v>653</v>
       </c>
       <c r="N261" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="Q261" s="6" t="s">
         <v>35</v>
@@ -11538,16 +11559,16 @@
     </row>
     <row r="263" spans="1:23">
       <c r="A263" s="9" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="E263" s="6" t="s">
         <v>27</v>
@@ -11562,7 +11583,7 @@
         <v>28</v>
       </c>
       <c r="I263" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J263" s="6" t="s">
         <v>30</v>
@@ -11574,10 +11595,10 @@
         <v>32</v>
       </c>
       <c r="M263" t="s">
-        <v>652</v>
+        <v>534</v>
       </c>
       <c r="N263" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="Q263" s="6" t="s">
         <v>35</v>
@@ -11594,16 +11615,16 @@
     </row>
     <row r="265" spans="1:23">
       <c r="A265" s="9" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="E265" s="6" t="s">
         <v>27</v>
@@ -11627,39 +11648,39 @@
         <v>31</v>
       </c>
       <c r="L265" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="M265" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="N265" t="s">
-        <v>201</v>
-      </c>
-      <c r="O265" t="s">
-        <v>655</v>
-      </c>
-      <c r="P265" t="s">
-        <v>655</v>
+        <v>42</v>
       </c>
       <c r="Q265" s="6" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="S265" s="7" t="s">
-        <v>67</v>
+        <v>35</v>
+      </c>
+      <c r="T265" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W265" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:23">
       <c r="A267" s="9" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>198</v>
+        <v>119</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E267" s="6" t="s">
         <v>27</v>
@@ -11674,7 +11695,7 @@
         <v>28</v>
       </c>
       <c r="I267" s="6" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="J267" s="6" t="s">
         <v>30</v>
@@ -11683,39 +11704,39 @@
         <v>31</v>
       </c>
       <c r="L267" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="M267" t="s">
-        <v>253</v>
+        <v>660</v>
       </c>
       <c r="N267" t="s">
-        <v>253</v>
+        <v>201</v>
+      </c>
+      <c r="O267" t="s">
+        <v>663</v>
+      </c>
+      <c r="P267" t="s">
+        <v>663</v>
       </c>
       <c r="Q267" s="6" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="S267" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T267" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W267" t="b">
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="269" spans="1:23">
       <c r="A269" s="9" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>661</v>
+        <v>198</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="E269" s="6" t="s">
         <v>27</v>
@@ -11742,10 +11763,10 @@
         <v>32</v>
       </c>
       <c r="M269" t="s">
-        <v>395</v>
+        <v>253</v>
       </c>
       <c r="N269" t="s">
-        <v>42</v>
+        <v>253</v>
       </c>
       <c r="Q269" s="6" t="s">
         <v>35</v>
@@ -11762,16 +11783,16 @@
     </row>
     <row r="271" spans="1:23">
       <c r="A271" s="9" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="E271" s="6" t="s">
         <v>27</v>
@@ -11786,7 +11807,7 @@
         <v>28</v>
       </c>
       <c r="I271" s="6" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="J271" s="6" t="s">
         <v>30</v>
@@ -11798,10 +11819,10 @@
         <v>32</v>
       </c>
       <c r="M271" t="s">
-        <v>667</v>
+        <v>395</v>
       </c>
       <c r="N271" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q271" s="6" t="s">
         <v>35</v>
@@ -11818,16 +11839,16 @@
     </row>
     <row r="273" spans="1:23">
       <c r="A273" s="9" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="E273" s="6" t="s">
         <v>27</v>
@@ -11851,92 +11872,92 @@
         <v>31</v>
       </c>
       <c r="L273" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="M273" t="s">
-        <v>110</v>
+        <v>675</v>
       </c>
       <c r="N273" t="s">
         <v>48</v>
       </c>
-      <c r="O273" t="s">
+      <c r="Q273" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S273" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T273" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W273" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:23">
+      <c r="A275" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="E275" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F275" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G275" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H275" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I275" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J275" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K275" t="s">
+        <v>31</v>
+      </c>
+      <c r="L275" t="s">
+        <v>63</v>
+      </c>
+      <c r="M275" t="s">
+        <v>110</v>
+      </c>
+      <c r="N275" t="s">
+        <v>48</v>
+      </c>
+      <c r="O275" t="s">
         <v>335</v>
       </c>
-      <c r="P273" t="s">
+      <c r="P275" t="s">
         <v>202</v>
       </c>
-      <c r="Q273" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="274" spans="1:23">
-      <c r="A274" s="9" t="s">
-        <v>672</v>
-      </c>
-      <c r="B274" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="C274" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="D274" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="E274" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F274" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G274" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H274" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I274" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J274" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K274" t="s">
-        <v>31</v>
-      </c>
-      <c r="L274" t="s">
-        <v>32</v>
-      </c>
-      <c r="M274" t="s">
-        <v>673</v>
-      </c>
-      <c r="N274" t="s">
-        <v>674</v>
-      </c>
-      <c r="Q274" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S274" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T274" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W274" t="b">
-        <v>1</v>
+      <c r="Q275" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="276" spans="1:23">
       <c r="A276" s="9" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>492</v>
+        <v>678</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="E276" s="6" t="s">
         <v>27</v>
@@ -11951,7 +11972,7 @@
         <v>28</v>
       </c>
       <c r="I276" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J276" s="6" t="s">
         <v>30</v>
@@ -11963,10 +11984,10 @@
         <v>32</v>
       </c>
       <c r="M276" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="N276" t="s">
-        <v>57</v>
+        <v>682</v>
       </c>
       <c r="Q276" s="6" t="s">
         <v>35</v>
@@ -11983,16 +12004,16 @@
     </row>
     <row r="278" spans="1:23">
       <c r="A278" s="9" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="B278" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D278" s="6" t="s">
         <v>679</v>
-      </c>
-      <c r="C278" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D278" s="6" t="s">
-        <v>680</v>
       </c>
       <c r="E278" s="6" t="s">
         <v>27</v>
@@ -12019,7 +12040,7 @@
         <v>32</v>
       </c>
       <c r="M278" t="s">
-        <v>264</v>
+        <v>685</v>
       </c>
       <c r="N278" t="s">
         <v>57</v>
@@ -12039,16 +12060,16 @@
     </row>
     <row r="280" spans="1:23">
       <c r="A280" s="9" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>683</v>
+        <v>240</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="E280" s="6" t="s">
         <v>27</v>
@@ -12063,7 +12084,7 @@
         <v>28</v>
       </c>
       <c r="I280" s="6" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="J280" s="6" t="s">
         <v>30</v>
@@ -12075,10 +12096,10 @@
         <v>32</v>
       </c>
       <c r="M280" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="N280" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="Q280" s="6" t="s">
         <v>35</v>
@@ -12095,16 +12116,16 @@
     </row>
     <row r="282" spans="1:23">
       <c r="A282" s="9" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E282" s="6" t="s">
         <v>27</v>
@@ -12119,7 +12140,7 @@
         <v>28</v>
       </c>
       <c r="I282" s="6" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="J282" s="6" t="s">
         <v>30</v>
@@ -12131,10 +12152,10 @@
         <v>32</v>
       </c>
       <c r="M282" t="s">
-        <v>688</v>
+        <v>237</v>
       </c>
       <c r="N282" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q282" s="6" t="s">
         <v>35</v>
@@ -12151,16 +12172,16 @@
     </row>
     <row r="284" spans="1:23">
       <c r="A284" s="9" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="E284" s="6" t="s">
         <v>27</v>
@@ -12175,7 +12196,7 @@
         <v>28</v>
       </c>
       <c r="I284" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J284" s="6" t="s">
         <v>30</v>
@@ -12187,10 +12208,10 @@
         <v>32</v>
       </c>
       <c r="M284" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="N284" t="s">
-        <v>422</v>
+        <v>57</v>
       </c>
       <c r="Q284" s="6" t="s">
         <v>35</v>
@@ -12207,16 +12228,16 @@
     </row>
     <row r="286" spans="1:23">
       <c r="A286" s="9" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="E286" s="6" t="s">
         <v>27</v>
@@ -12243,10 +12264,10 @@
         <v>32</v>
       </c>
       <c r="M286" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="N286" t="s">
-        <v>201</v>
+        <v>422</v>
       </c>
       <c r="Q286" s="6" t="s">
         <v>35</v>
@@ -12263,16 +12284,16 @@
     </row>
     <row r="288" spans="1:23">
       <c r="A288" s="9" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="E288" s="6" t="s">
         <v>27</v>
@@ -12299,10 +12320,10 @@
         <v>32</v>
       </c>
       <c r="M288" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="N288" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="Q288" s="6" t="s">
         <v>35</v>
@@ -12319,13 +12340,13 @@
     </row>
     <row r="290" spans="1:23">
       <c r="A290" s="9" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>425</v>
+        <v>709</v>
       </c>
       <c r="D290" s="6" t="s">
         <v>705</v>
@@ -12355,10 +12376,10 @@
         <v>32</v>
       </c>
       <c r="M290" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="N290" t="s">
-        <v>377</v>
+        <v>227</v>
       </c>
       <c r="Q290" s="6" t="s">
         <v>35</v>
@@ -12375,16 +12396,16 @@
     </row>
     <row r="292" spans="1:23">
       <c r="A292" s="9" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="E292" s="6" t="s">
         <v>27</v>
@@ -12399,7 +12420,7 @@
         <v>28</v>
       </c>
       <c r="I292" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J292" s="6" t="s">
         <v>30</v>
@@ -12411,10 +12432,10 @@
         <v>32</v>
       </c>
       <c r="M292" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="N292" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="Q292" s="6" t="s">
         <v>35</v>
@@ -12431,16 +12452,16 @@
     </row>
     <row r="294" spans="1:23">
       <c r="A294" s="9" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>25</v>
+        <v>435</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="E294" s="6" t="s">
         <v>27</v>
@@ -12467,10 +12488,10 @@
         <v>32</v>
       </c>
       <c r="M294" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="N294" t="s">
-        <v>136</v>
+        <v>340</v>
       </c>
       <c r="Q294" s="6" t="s">
         <v>35</v>
@@ -12487,16 +12508,16 @@
     </row>
     <row r="296" spans="1:23">
       <c r="A296" s="9" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>717</v>
+        <v>25</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="E296" s="6" t="s">
         <v>27</v>
@@ -12523,10 +12544,10 @@
         <v>32</v>
       </c>
       <c r="M296" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="N296" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="Q296" s="6" t="s">
         <v>35</v>
@@ -12543,16 +12564,16 @@
     </row>
     <row r="298" spans="1:23">
       <c r="A298" s="9" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>119</v>
+        <v>725</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="E298" s="6" t="s">
         <v>27</v>
@@ -12567,7 +12588,7 @@
         <v>28</v>
       </c>
       <c r="I298" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J298" s="6" t="s">
         <v>30</v>
@@ -12579,10 +12600,10 @@
         <v>32</v>
       </c>
       <c r="M298" t="s">
-        <v>88</v>
+        <v>727</v>
       </c>
       <c r="N298" t="s">
-        <v>465</v>
+        <v>98</v>
       </c>
       <c r="Q298" s="6" t="s">
         <v>35</v>
@@ -12599,16 +12620,16 @@
     </row>
     <row r="300" spans="1:23">
       <c r="A300" s="9" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>725</v>
+        <v>119</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="E300" s="6" t="s">
         <v>27</v>
@@ -12635,10 +12656,10 @@
         <v>32</v>
       </c>
       <c r="M300" t="s">
-        <v>727</v>
+        <v>88</v>
       </c>
       <c r="N300" t="s">
-        <v>232</v>
+        <v>465</v>
       </c>
       <c r="Q300" s="6" t="s">
         <v>35</v>
@@ -12655,16 +12676,16 @@
     </row>
     <row r="302" spans="1:23">
       <c r="A302" s="9" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B302" s="9" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>180</v>
+        <v>733</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="E302" s="6" t="s">
         <v>27</v>
@@ -12679,7 +12700,7 @@
         <v>28</v>
       </c>
       <c r="I302" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J302" s="6" t="s">
         <v>30</v>
@@ -12691,10 +12712,10 @@
         <v>32</v>
       </c>
       <c r="M302" t="s">
-        <v>494</v>
+        <v>735</v>
       </c>
       <c r="N302" t="s">
-        <v>57</v>
+        <v>232</v>
       </c>
       <c r="Q302" s="6" t="s">
         <v>35</v>
@@ -12711,16 +12732,16 @@
     </row>
     <row r="304" spans="1:23">
       <c r="A304" s="9" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>733</v>
+        <v>180</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="E304" s="6" t="s">
         <v>27</v>
@@ -12747,10 +12768,10 @@
         <v>32</v>
       </c>
       <c r="M304" t="s">
-        <v>735</v>
+        <v>494</v>
       </c>
       <c r="N304" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q304" s="6" t="s">
         <v>35</v>
@@ -12767,16 +12788,16 @@
     </row>
     <row r="306" spans="1:23">
       <c r="A306" s="9" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>468</v>
+        <v>741</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="E306" s="6" t="s">
         <v>27</v>
@@ -12791,7 +12812,7 @@
         <v>28</v>
       </c>
       <c r="I306" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J306" s="6" t="s">
         <v>30</v>
@@ -12803,10 +12824,10 @@
         <v>32</v>
       </c>
       <c r="M306" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="N306" t="s">
-        <v>232</v>
+        <v>48</v>
       </c>
       <c r="Q306" s="6" t="s">
         <v>35</v>
@@ -12823,16 +12844,16 @@
     </row>
     <row r="308" spans="1:23">
       <c r="A308" s="9" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>742</v>
+        <v>468</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="E308" s="6" t="s">
         <v>27</v>
@@ -12847,7 +12868,7 @@
         <v>28</v>
       </c>
       <c r="I308" s="6" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="J308" s="6" t="s">
         <v>30</v>
@@ -12859,10 +12880,10 @@
         <v>32</v>
       </c>
       <c r="M308" t="s">
-        <v>510</v>
+        <v>747</v>
       </c>
       <c r="N308" t="s">
-        <v>42</v>
+        <v>232</v>
       </c>
       <c r="Q308" s="6" t="s">
         <v>35</v>
@@ -12879,16 +12900,16 @@
     </row>
     <row r="310" spans="1:23">
       <c r="A310" s="9" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>240</v>
+        <v>750</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="E310" s="6" t="s">
         <v>27</v>
@@ -12903,7 +12924,7 @@
         <v>28</v>
       </c>
       <c r="I310" s="6" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="J310" s="6" t="s">
         <v>30</v>
@@ -12915,10 +12936,10 @@
         <v>32</v>
       </c>
       <c r="M310" t="s">
-        <v>413</v>
+        <v>510</v>
       </c>
       <c r="N310" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q310" s="6" t="s">
         <v>35</v>
@@ -12935,16 +12956,16 @@
     </row>
     <row r="312" spans="1:23">
       <c r="A312" s="9" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>749</v>
+        <v>240</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="E312" s="6" t="s">
         <v>27</v>
@@ -12971,10 +12992,10 @@
         <v>32</v>
       </c>
       <c r="M312" t="s">
-        <v>751</v>
+        <v>413</v>
       </c>
       <c r="N312" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="Q312" s="6" t="s">
         <v>35</v>
@@ -12991,16 +13012,16 @@
     </row>
     <row r="314" spans="1:23">
       <c r="A314" s="9" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>119</v>
+        <v>757</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="E314" s="6" t="s">
         <v>27</v>
@@ -13027,10 +13048,10 @@
         <v>32</v>
       </c>
       <c r="M314" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="N314" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="Q314" s="6" t="s">
         <v>35</v>
@@ -13047,16 +13068,16 @@
     </row>
     <row r="316" spans="1:23">
       <c r="A316" s="9" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="E316" s="6" t="s">
         <v>27</v>
@@ -13083,10 +13104,10 @@
         <v>32</v>
       </c>
       <c r="M316" t="s">
-        <v>503</v>
+        <v>763</v>
       </c>
       <c r="N316" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="Q316" s="6" t="s">
         <v>35</v>
@@ -13103,16 +13124,16 @@
     </row>
     <row r="318" spans="1:23">
       <c r="A318" s="9" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="E318" s="6" t="s">
         <v>27</v>
@@ -13136,39 +13157,36 @@
         <v>31</v>
       </c>
       <c r="L318" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="M318" t="s">
-        <v>762</v>
+        <v>503</v>
       </c>
       <c r="N318" t="s">
-        <v>763</v>
-      </c>
-      <c r="O318" t="s">
-        <v>764</v>
-      </c>
-      <c r="P318" t="s">
-        <v>764</v>
+        <v>42</v>
       </c>
       <c r="Q318" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="R318" s="6" t="s">
-        <v>765</v>
+        <v>35</v>
       </c>
       <c r="S318" s="7" t="s">
-        <v>67</v>
+        <v>35</v>
+      </c>
+      <c r="T318" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W318" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:23">
       <c r="A320" s="9" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B320" s="9" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>768</v>
+        <v>25</v>
       </c>
       <c r="D320" s="6" t="s">
         <v>769</v>
@@ -13195,39 +13213,42 @@
         <v>31</v>
       </c>
       <c r="L320" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="M320" t="s">
         <v>770</v>
       </c>
       <c r="N320" t="s">
-        <v>48</v>
+        <v>771</v>
+      </c>
+      <c r="O320" t="s">
+        <v>772</v>
+      </c>
+      <c r="P320" t="s">
+        <v>772</v>
       </c>
       <c r="Q320" s="6" t="s">
-        <v>35</v>
+        <v>67</v>
+      </c>
+      <c r="R320" s="6" t="s">
+        <v>773</v>
       </c>
       <c r="S320" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T320" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W320" t="b">
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="322" spans="1:23">
       <c r="A322" s="9" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="E322" s="6" t="s">
         <v>27</v>
@@ -13254,10 +13275,10 @@
         <v>32</v>
       </c>
       <c r="M322" t="s">
-        <v>177</v>
+        <v>778</v>
       </c>
       <c r="N322" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="Q322" s="6" t="s">
         <v>35</v>
@@ -13274,16 +13295,16 @@
     </row>
     <row r="324" spans="1:23">
       <c r="A324" s="9" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="B324" s="9" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="E324" s="6" t="s">
         <v>27</v>
@@ -13310,10 +13331,10 @@
         <v>32</v>
       </c>
       <c r="M324" t="s">
-        <v>503</v>
+        <v>177</v>
       </c>
       <c r="N324" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="Q324" s="6" t="s">
         <v>35</v>
@@ -13330,17 +13351,17 @@
     </row>
     <row r="326" spans="1:23">
       <c r="A326" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="B326" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="D326" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="B326" s="9" t="s">
-        <v>778</v>
-      </c>
-      <c r="C326" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="D326" s="6" t="s">
-        <v>780</v>
-      </c>
       <c r="E326" s="6" t="s">
         <v>27</v>
       </c>
@@ -13354,7 +13375,7 @@
         <v>28</v>
       </c>
       <c r="I326" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J326" s="6" t="s">
         <v>30</v>
@@ -13366,10 +13387,10 @@
         <v>32</v>
       </c>
       <c r="M326" t="s">
-        <v>161</v>
+        <v>503</v>
       </c>
       <c r="N326" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q326" s="6" t="s">
         <v>35</v>
@@ -13386,16 +13407,16 @@
     </row>
     <row r="328" spans="1:23">
       <c r="A328" s="9" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="E328" s="6" t="s">
         <v>27</v>
@@ -13410,7 +13431,7 @@
         <v>28</v>
       </c>
       <c r="I328" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J328" s="6" t="s">
         <v>30</v>
@@ -13419,39 +13440,39 @@
         <v>31</v>
       </c>
       <c r="L328" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="M328" t="s">
-        <v>785</v>
+        <v>161</v>
       </c>
       <c r="N328" t="s">
         <v>57</v>
       </c>
-      <c r="O328" t="s">
-        <v>602</v>
-      </c>
-      <c r="P328" t="s">
-        <v>786</v>
-      </c>
       <c r="Q328" s="6" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="S328" s="7" t="s">
-        <v>67</v>
+        <v>35</v>
+      </c>
+      <c r="T328" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W328" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:23">
       <c r="A330" s="9" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B330" s="9" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="E330" s="6" t="s">
         <v>27</v>
@@ -13475,39 +13496,39 @@
         <v>31</v>
       </c>
       <c r="L330" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="M330" t="s">
-        <v>222</v>
+        <v>793</v>
       </c>
       <c r="N330" t="s">
-        <v>111</v>
+        <v>57</v>
+      </c>
+      <c r="O330" t="s">
+        <v>602</v>
+      </c>
+      <c r="P330" t="s">
+        <v>794</v>
       </c>
       <c r="Q330" s="6" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="S330" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T330" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W330" t="b">
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="332" spans="1:23">
       <c r="A332" s="9" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="B332" s="9" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>175</v>
+        <v>797</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="E332" s="6" t="s">
         <v>27</v>
@@ -13531,7 +13552,7 @@
         <v>31</v>
       </c>
       <c r="L332" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="M332" t="s">
         <v>222</v>
@@ -13539,31 +13560,31 @@
       <c r="N332" t="s">
         <v>111</v>
       </c>
-      <c r="O332" t="s">
-        <v>602</v>
-      </c>
-      <c r="P332" t="s">
-        <v>793</v>
-      </c>
       <c r="Q332" s="6" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="S332" s="7" t="s">
-        <v>67</v>
+        <v>35</v>
+      </c>
+      <c r="T332" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W332" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:23">
       <c r="A334" s="9" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="B334" s="9" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>796</v>
+        <v>175</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E334" s="6" t="s">
         <v>27</v>
@@ -13578,7 +13599,7 @@
         <v>28</v>
       </c>
       <c r="I334" s="6" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="J334" s="6" t="s">
         <v>30</v>
@@ -13587,39 +13608,39 @@
         <v>31</v>
       </c>
       <c r="L334" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="M334" t="s">
-        <v>311</v>
+        <v>222</v>
       </c>
       <c r="N334" t="s">
-        <v>42</v>
+        <v>111</v>
+      </c>
+      <c r="O334" t="s">
+        <v>602</v>
+      </c>
+      <c r="P334" t="s">
+        <v>801</v>
       </c>
       <c r="Q334" s="6" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="S334" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T334" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W334" t="b">
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="336" spans="1:23">
       <c r="A336" s="9" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="B336" s="9" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="E336" s="6" t="s">
         <v>27</v>
@@ -13634,7 +13655,7 @@
         <v>28</v>
       </c>
       <c r="I336" s="6" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="J336" s="6" t="s">
         <v>30</v>
@@ -13646,10 +13667,10 @@
         <v>32</v>
       </c>
       <c r="M336" t="s">
-        <v>802</v>
+        <v>311</v>
       </c>
       <c r="N336" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="Q336" s="6" t="s">
         <v>35</v>
@@ -13666,16 +13687,16 @@
     </row>
     <row r="338" spans="1:23">
       <c r="A338" s="9" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B338" s="9" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="E338" s="6" t="s">
         <v>27</v>
@@ -13702,10 +13723,10 @@
         <v>32</v>
       </c>
       <c r="M338" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="N338" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="Q338" s="6" t="s">
         <v>35</v>
@@ -13722,16 +13743,16 @@
     </row>
     <row r="340" spans="1:23">
       <c r="A340" s="9" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B340" s="9" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="E340" s="6" t="s">
         <v>27</v>
@@ -13746,7 +13767,7 @@
         <v>28</v>
       </c>
       <c r="I340" s="6" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="J340" s="6" t="s">
         <v>30</v>
@@ -13758,10 +13779,10 @@
         <v>32</v>
       </c>
       <c r="M340" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="N340" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="Q340" s="6" t="s">
         <v>35</v>
@@ -13778,16 +13799,16 @@
     </row>
     <row r="342" spans="1:23">
       <c r="A342" s="9" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B342" s="9" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>385</v>
+        <v>818</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="E342" s="6" t="s">
         <v>27</v>
@@ -13802,7 +13823,7 @@
         <v>28</v>
       </c>
       <c r="I342" s="6" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="J342" s="6" t="s">
         <v>30</v>
@@ -13814,10 +13835,10 @@
         <v>32</v>
       </c>
       <c r="M342" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="N342" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="Q342" s="6" t="s">
         <v>35</v>
@@ -13834,16 +13855,16 @@
     </row>
     <row r="344" spans="1:23">
       <c r="A344" s="9" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>819</v>
+        <v>385</v>
       </c>
       <c r="D344" s="6" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="E344" s="6" t="s">
         <v>27</v>
@@ -13870,10 +13891,10 @@
         <v>32</v>
       </c>
       <c r="M344" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="N344" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="Q344" s="6" t="s">
         <v>35</v>
@@ -13890,16 +13911,16 @@
     </row>
     <row r="346" spans="1:23">
       <c r="A346" s="9" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>240</v>
+        <v>827</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="E346" s="6" t="s">
         <v>27</v>
@@ -13914,7 +13935,7 @@
         <v>28</v>
       </c>
       <c r="I346" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J346" s="6" t="s">
         <v>30</v>
@@ -13926,10 +13947,10 @@
         <v>32</v>
       </c>
       <c r="M346" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="N346" t="s">
-        <v>547</v>
+        <v>183</v>
       </c>
       <c r="Q346" s="6" t="s">
         <v>35</v>
@@ -13946,16 +13967,16 @@
     </row>
     <row r="348" spans="1:23">
       <c r="A348" s="9" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="B348" s="9" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>691</v>
+        <v>240</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="E348" s="6" t="s">
         <v>27</v>
@@ -13982,10 +14003,10 @@
         <v>32</v>
       </c>
       <c r="M348" t="s">
-        <v>311</v>
+        <v>833</v>
       </c>
       <c r="N348" t="s">
-        <v>42</v>
+        <v>547</v>
       </c>
       <c r="Q348" s="6" t="s">
         <v>35</v>
@@ -14002,16 +14023,16 @@
     </row>
     <row r="350" spans="1:23">
       <c r="A350" s="9" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="B350" s="9" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>451</v>
+        <v>699</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="E350" s="6" t="s">
         <v>27</v>
@@ -14026,7 +14047,7 @@
         <v>28</v>
       </c>
       <c r="I350" s="6" t="s">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="J350" s="6" t="s">
         <v>30</v>
@@ -14038,7 +14059,7 @@
         <v>32</v>
       </c>
       <c r="M350" t="s">
-        <v>42</v>
+        <v>311</v>
       </c>
       <c r="N350" t="s">
         <v>42</v>
@@ -14058,16 +14079,16 @@
     </row>
     <row r="352" spans="1:23">
       <c r="A352" s="9" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>186</v>
+        <v>451</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="E352" s="6" t="s">
         <v>27</v>
@@ -14082,7 +14103,7 @@
         <v>28</v>
       </c>
       <c r="I352" s="6" t="s">
-        <v>835</v>
+        <v>188</v>
       </c>
       <c r="J352" s="6" t="s">
         <v>30</v>
@@ -14094,10 +14115,10 @@
         <v>32</v>
       </c>
       <c r="M352" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="N352" t="s">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="Q352" s="6" t="s">
         <v>35</v>
@@ -14114,16 +14135,16 @@
     </row>
     <row r="354" spans="1:23">
       <c r="A354" s="9" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="B354" s="9" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="C354" s="6" t="s">
         <v>186</v>
       </c>
       <c r="D354" s="6" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="E354" s="6" t="s">
         <v>27</v>
@@ -14138,7 +14159,7 @@
         <v>28</v>
       </c>
       <c r="I354" s="6" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="J354" s="6" t="s">
         <v>30</v>
@@ -14150,10 +14171,10 @@
         <v>32</v>
       </c>
       <c r="M354" t="s">
-        <v>483</v>
+        <v>182</v>
       </c>
       <c r="N354" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="Q354" s="6" t="s">
         <v>35</v>
@@ -14170,16 +14191,16 @@
     </row>
     <row r="356" spans="1:23">
       <c r="A356" s="9" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="B356" s="9" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>841</v>
+        <v>186</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="E356" s="6" t="s">
         <v>27</v>
@@ -14206,30 +14227,36 @@
         <v>32</v>
       </c>
       <c r="M356" t="s">
-        <v>844</v>
+        <v>483</v>
       </c>
       <c r="N356" t="s">
-        <v>845</v>
+        <v>227</v>
       </c>
       <c r="Q356" s="6" t="s">
         <v>35</v>
       </c>
       <c r="S356" s="7" t="s">
-        <v>67</v>
+        <v>35</v>
+      </c>
+      <c r="T356" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W356" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:23">
       <c r="A358" s="9" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B358" s="9" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>532</v>
+        <v>849</v>
       </c>
       <c r="D358" s="6" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="E358" s="6" t="s">
         <v>27</v>
@@ -14244,7 +14271,7 @@
         <v>28</v>
       </c>
       <c r="I358" s="6" t="s">
-        <v>40</v>
+        <v>851</v>
       </c>
       <c r="J358" s="6" t="s">
         <v>30</v>
@@ -14256,36 +14283,30 @@
         <v>32</v>
       </c>
       <c r="M358" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="N358" t="s">
-        <v>504</v>
+        <v>853</v>
       </c>
       <c r="Q358" s="6" t="s">
         <v>35</v>
       </c>
       <c r="S358" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T358" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W358" t="b">
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="360" spans="1:23">
       <c r="A360" s="9" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="B360" s="9" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>852</v>
+        <v>532</v>
       </c>
       <c r="D360" s="6" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="E360" s="6" t="s">
         <v>27</v>
@@ -14312,10 +14333,10 @@
         <v>32</v>
       </c>
       <c r="M360" t="s">
-        <v>232</v>
+        <v>857</v>
       </c>
       <c r="N360" t="s">
-        <v>201</v>
+        <v>504</v>
       </c>
       <c r="Q360" s="6" t="s">
         <v>35</v>
@@ -14332,16 +14353,16 @@
     </row>
     <row r="362" spans="1:23">
       <c r="A362" s="9" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="B362" s="9" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>742</v>
+        <v>860</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E362" s="6" t="s">
         <v>27</v>
@@ -14368,10 +14389,10 @@
         <v>32</v>
       </c>
       <c r="M362" t="s">
-        <v>856</v>
+        <v>232</v>
       </c>
       <c r="N362" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="Q362" s="6" t="s">
         <v>35</v>
@@ -14388,16 +14409,16 @@
     </row>
     <row r="364" spans="1:23">
       <c r="A364" s="9" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="B364" s="9" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>240</v>
+        <v>750</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="E364" s="6" t="s">
         <v>27</v>
@@ -14412,7 +14433,7 @@
         <v>28</v>
       </c>
       <c r="I364" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J364" s="6" t="s">
         <v>30</v>
@@ -14424,10 +14445,10 @@
         <v>32</v>
       </c>
       <c r="M364" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="N364" t="s">
-        <v>340</v>
+        <v>98</v>
       </c>
       <c r="Q364" s="6" t="s">
         <v>35</v>
@@ -14444,16 +14465,16 @@
     </row>
     <row r="366" spans="1:23">
       <c r="A366" s="9" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="B366" s="9" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>863</v>
+        <v>240</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="E366" s="6" t="s">
         <v>27</v>
@@ -14468,7 +14489,7 @@
         <v>28</v>
       </c>
       <c r="I366" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J366" s="6" t="s">
         <v>30</v>
@@ -14480,10 +14501,10 @@
         <v>32</v>
       </c>
       <c r="M366" t="s">
-        <v>546</v>
+        <v>868</v>
       </c>
       <c r="N366" t="s">
-        <v>98</v>
+        <v>340</v>
       </c>
       <c r="Q366" s="6" t="s">
         <v>35</v>
@@ -14500,16 +14521,16 @@
     </row>
     <row r="368" spans="1:23">
       <c r="A368" s="9" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="B368" s="9" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="E368" s="6" t="s">
         <v>27</v>
@@ -14524,7 +14545,7 @@
         <v>28</v>
       </c>
       <c r="I368" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J368" s="6" t="s">
         <v>30</v>
@@ -14536,10 +14557,10 @@
         <v>32</v>
       </c>
       <c r="M368" t="s">
-        <v>869</v>
+        <v>546</v>
       </c>
       <c r="N368" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="Q368" s="6" t="s">
         <v>35</v>
@@ -14556,16 +14577,16 @@
     </row>
     <row r="370" spans="1:23">
       <c r="A370" s="9" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="B370" s="9" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>403</v>
+        <v>875</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="E370" s="6" t="s">
         <v>27</v>
@@ -14589,39 +14610,39 @@
         <v>31</v>
       </c>
       <c r="L370" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="M370" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="N370" t="s">
-        <v>72</v>
-      </c>
-      <c r="O370" t="s">
-        <v>874</v>
-      </c>
-      <c r="P370" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="Q370" s="6" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="S370" s="7" t="s">
-        <v>67</v>
+        <v>35</v>
+      </c>
+      <c r="T370" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W370" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:23">
       <c r="A372" s="9" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>119</v>
+        <v>403</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="E372" s="6" t="s">
         <v>27</v>
@@ -14636,7 +14657,7 @@
         <v>28</v>
       </c>
       <c r="I372" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J372" s="6" t="s">
         <v>30</v>
@@ -14645,39 +14666,39 @@
         <v>31</v>
       </c>
       <c r="L372" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="M372" t="s">
-        <v>315</v>
+        <v>881</v>
       </c>
       <c r="N372" t="s">
-        <v>316</v>
+        <v>72</v>
+      </c>
+      <c r="O372" t="s">
+        <v>882</v>
+      </c>
+      <c r="P372" t="s">
+        <v>66</v>
       </c>
       <c r="Q372" s="6" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="S372" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T372" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W372" t="b">
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="374" spans="1:23">
       <c r="A374" s="9" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="B374" s="9" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>880</v>
+        <v>119</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="E374" s="6" t="s">
         <v>27</v>
@@ -14704,10 +14725,10 @@
         <v>32</v>
       </c>
       <c r="M374" t="s">
-        <v>882</v>
+        <v>315</v>
       </c>
       <c r="N374" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="Q374" s="6" t="s">
         <v>35</v>
@@ -14724,16 +14745,16 @@
     </row>
     <row r="376" spans="1:23">
       <c r="A376" s="9" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="B376" s="9" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="E376" s="6" t="s">
         <v>27</v>
@@ -14748,7 +14769,7 @@
         <v>28</v>
       </c>
       <c r="I376" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J376" s="6" t="s">
         <v>30</v>
@@ -14760,10 +14781,10 @@
         <v>32</v>
       </c>
       <c r="M376" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="N376" t="s">
-        <v>98</v>
+        <v>340</v>
       </c>
       <c r="Q376" s="6" t="s">
         <v>35</v>
@@ -14780,16 +14801,16 @@
     </row>
     <row r="378" spans="1:23">
       <c r="A378" s="9" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="B378" s="9" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>198</v>
+        <v>893</v>
       </c>
       <c r="D378" s="6" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="E378" s="6" t="s">
         <v>27</v>
@@ -14804,7 +14825,7 @@
         <v>28</v>
       </c>
       <c r="I378" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J378" s="6" t="s">
         <v>30</v>
@@ -14816,10 +14837,10 @@
         <v>32</v>
       </c>
       <c r="M378" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="N378" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="Q378" s="6" t="s">
         <v>35</v>
@@ -14836,16 +14857,16 @@
     </row>
     <row r="380" spans="1:23">
       <c r="A380" s="9" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B380" s="9" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="D380" s="6" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="E380" s="6" t="s">
         <v>27</v>
@@ -14872,10 +14893,10 @@
         <v>32</v>
       </c>
       <c r="M380" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="N380" t="s">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="Q380" s="6" t="s">
         <v>35</v>
@@ -14892,16 +14913,16 @@
     </row>
     <row r="382" spans="1:23">
       <c r="A382" s="9" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="B382" s="9" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="E382" s="6" t="s">
         <v>27</v>
@@ -14916,7 +14937,7 @@
         <v>28</v>
       </c>
       <c r="I382" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J382" s="6" t="s">
         <v>30</v>
@@ -14928,10 +14949,10 @@
         <v>32</v>
       </c>
       <c r="M382" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="N382" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="Q382" s="6" t="s">
         <v>35</v>
@@ -14948,16 +14969,16 @@
     </row>
     <row r="384" spans="1:23">
       <c r="A384" s="9" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="B384" s="9" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="E384" s="6" t="s">
         <v>27</v>
@@ -14972,7 +14993,7 @@
         <v>28</v>
       </c>
       <c r="I384" s="6" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="J384" s="6" t="s">
         <v>30</v>
@@ -14984,10 +15005,10 @@
         <v>32</v>
       </c>
       <c r="M384" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="N384" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="Q384" s="6" t="s">
         <v>35</v>
@@ -15004,16 +15025,16 @@
     </row>
     <row r="386" spans="1:23">
       <c r="A386" s="9" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="B386" s="9" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>587</v>
+        <v>175</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="E386" s="6" t="s">
         <v>27</v>
@@ -15028,7 +15049,7 @@
         <v>28</v>
       </c>
       <c r="I386" s="6" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="J386" s="6" t="s">
         <v>30</v>
@@ -15040,10 +15061,10 @@
         <v>32</v>
       </c>
       <c r="M386" t="s">
-        <v>494</v>
+        <v>911</v>
       </c>
       <c r="N386" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="Q386" s="6" t="s">
         <v>35</v>
@@ -15060,16 +15081,16 @@
     </row>
     <row r="388" spans="1:23">
       <c r="A388" s="9" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="B388" s="9" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>909</v>
+        <v>587</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="E388" s="6" t="s">
         <v>27</v>
@@ -15084,7 +15105,7 @@
         <v>28</v>
       </c>
       <c r="I388" s="6" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="J388" s="6" t="s">
         <v>30</v>
@@ -15093,39 +15114,39 @@
         <v>31</v>
       </c>
       <c r="L388" t="s">
-        <v>430</v>
+        <v>32</v>
       </c>
       <c r="M388" t="s">
-        <v>357</v>
+        <v>494</v>
       </c>
       <c r="N388" t="s">
-        <v>42</v>
-      </c>
-      <c r="O388" t="s">
-        <v>431</v>
-      </c>
-      <c r="P388" t="s">
-        <v>911</v>
+        <v>136</v>
       </c>
       <c r="Q388" s="6" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="S388" s="7" t="s">
-        <v>67</v>
+        <v>35</v>
+      </c>
+      <c r="T388" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W388" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:23">
       <c r="A390" s="9" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="B390" s="9" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>805</v>
+        <v>917</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="E390" s="6" t="s">
         <v>27</v>
@@ -15140,7 +15161,7 @@
         <v>28</v>
       </c>
       <c r="I390" s="6" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="J390" s="6" t="s">
         <v>30</v>
@@ -15149,36 +15170,36 @@
         <v>31</v>
       </c>
       <c r="L390" t="s">
-        <v>32</v>
+        <v>430</v>
       </c>
       <c r="M390" t="s">
-        <v>914</v>
+        <v>357</v>
       </c>
       <c r="N390" t="s">
-        <v>547</v>
+        <v>42</v>
+      </c>
+      <c r="O390" t="s">
+        <v>431</v>
+      </c>
+      <c r="P390" t="s">
+        <v>919</v>
       </c>
       <c r="Q390" s="6" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="S390" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T390" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W390" t="b">
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="392" spans="1:23">
       <c r="A392" s="9" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="B392" s="9" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>917</v>
+        <v>813</v>
       </c>
       <c r="D392" s="6" t="s">
         <v>918</v>
@@ -15208,10 +15229,10 @@
         <v>32</v>
       </c>
       <c r="M392" t="s">
-        <v>264</v>
+        <v>922</v>
       </c>
       <c r="N392" t="s">
-        <v>104</v>
+        <v>547</v>
       </c>
       <c r="Q392" s="6" t="s">
         <v>35</v>
@@ -15228,16 +15249,16 @@
     </row>
     <row r="394" spans="1:23">
       <c r="A394" s="9" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="B394" s="9" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>220</v>
+        <v>925</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="E394" s="6" t="s">
         <v>27</v>
@@ -15252,7 +15273,7 @@
         <v>28</v>
       </c>
       <c r="I394" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J394" s="6" t="s">
         <v>30</v>
@@ -15264,10 +15285,10 @@
         <v>32</v>
       </c>
       <c r="M394" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="N394" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="Q394" s="6" t="s">
         <v>35</v>
@@ -15284,16 +15305,16 @@
     </row>
     <row r="396" spans="1:23">
       <c r="A396" s="9" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="B396" s="9" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="C396" s="6" t="s">
-        <v>924</v>
+        <v>220</v>
       </c>
       <c r="D396" s="6" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="E396" s="6" t="s">
         <v>27</v>
@@ -15308,7 +15329,7 @@
         <v>28</v>
       </c>
       <c r="I396" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J396" s="6" t="s">
         <v>30</v>
@@ -15320,10 +15341,10 @@
         <v>32</v>
       </c>
       <c r="M396" t="s">
-        <v>926</v>
+        <v>295</v>
       </c>
       <c r="N396" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="Q396" s="6" t="s">
         <v>35</v>
@@ -15340,16 +15361,16 @@
     </row>
     <row r="398" spans="1:23">
       <c r="A398" s="9" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="B398" s="9" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>175</v>
+        <v>932</v>
       </c>
       <c r="D398" s="6" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="E398" s="6" t="s">
         <v>27</v>
@@ -15364,7 +15385,7 @@
         <v>28</v>
       </c>
       <c r="I398" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J398" s="6" t="s">
         <v>30</v>
@@ -15376,10 +15397,10 @@
         <v>32</v>
       </c>
       <c r="M398" t="s">
-        <v>83</v>
+        <v>934</v>
       </c>
       <c r="N398" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="Q398" s="6" t="s">
         <v>35</v>
@@ -15396,16 +15417,16 @@
     </row>
     <row r="400" spans="1:23">
       <c r="A400" s="9" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="B400" s="9" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="C400" s="6" t="s">
-        <v>691</v>
+        <v>175</v>
       </c>
       <c r="D400" s="6" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="E400" s="6" t="s">
         <v>27</v>
@@ -15420,7 +15441,7 @@
         <v>28</v>
       </c>
       <c r="I400" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J400" s="6" t="s">
         <v>30</v>
@@ -15432,10 +15453,10 @@
         <v>32</v>
       </c>
       <c r="M400" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="N400" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="Q400" s="6" t="s">
         <v>35</v>
@@ -15452,16 +15473,16 @@
     </row>
     <row r="402" spans="1:23">
       <c r="A402" s="9" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="B402" s="9" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="C402" s="6" t="s">
-        <v>240</v>
+        <v>699</v>
       </c>
       <c r="D402" s="6" t="s">
-        <v>149</v>
+        <v>940</v>
       </c>
       <c r="E402" s="6" t="s">
         <v>27</v>
@@ -15476,22 +15497,22 @@
         <v>28</v>
       </c>
       <c r="I402" s="6" t="s">
-        <v>935</v>
+        <v>40</v>
       </c>
       <c r="J402" s="6" t="s">
-        <v>936</v>
+        <v>30</v>
       </c>
       <c r="K402" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="L402" t="s">
         <v>32</v>
       </c>
       <c r="M402" t="s">
-        <v>937</v>
+        <v>167</v>
       </c>
       <c r="N402" t="s">
-        <v>201</v>
+        <v>111</v>
       </c>
       <c r="Q402" s="6" t="s">
         <v>35</v>
@@ -15508,13 +15529,13 @@
     </row>
     <row r="404" spans="1:23">
       <c r="A404" s="9" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="B404" s="9" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="D404" s="6" t="s">
         <v>149</v>
@@ -15532,10 +15553,10 @@
         <v>28</v>
       </c>
       <c r="I404" s="6" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="J404" s="6" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="K404" t="s">
         <v>70</v>
@@ -15544,7 +15565,7 @@
         <v>32</v>
       </c>
       <c r="M404" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="N404" t="s">
         <v>201</v>
@@ -15564,34 +15585,34 @@
     </row>
     <row r="406" spans="1:23">
       <c r="A406" s="9" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="B406" s="9" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="C406" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D406" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E406" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F406" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G406" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H406" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I406" s="6" t="s">
         <v>943</v>
       </c>
-      <c r="D406" s="6" t="s">
-        <v>944</v>
-      </c>
-      <c r="E406" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F406" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G406" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H406" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I406" s="6" t="s">
-        <v>835</v>
-      </c>
       <c r="J406" s="6" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="K406" t="s">
         <v>70</v>
@@ -15600,10 +15621,10 @@
         <v>32</v>
       </c>
       <c r="M406" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="N406" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="Q406" s="6" t="s">
         <v>35</v>
@@ -15620,16 +15641,16 @@
     </row>
     <row r="408" spans="1:23">
       <c r="A408" s="9" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B408" s="9" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C408" s="6" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E408" s="6" t="s">
         <v>27</v>
@@ -15644,10 +15665,10 @@
         <v>28</v>
       </c>
       <c r="I408" s="6" t="s">
-        <v>935</v>
+        <v>843</v>
       </c>
       <c r="J408" s="6" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="K408" t="s">
         <v>70</v>
@@ -15656,10 +15677,10 @@
         <v>32</v>
       </c>
       <c r="M408" t="s">
-        <v>376</v>
+        <v>954</v>
       </c>
       <c r="N408" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="Q408" s="6" t="s">
         <v>35</v>
@@ -15676,16 +15697,16 @@
     </row>
     <row r="410" spans="1:23">
       <c r="A410" s="9" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="B410" s="9" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>517</v>
+        <v>957</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="E410" s="6" t="s">
         <v>27</v>
@@ -15700,10 +15721,10 @@
         <v>28</v>
       </c>
       <c r="I410" s="6" t="s">
-        <v>579</v>
+        <v>943</v>
       </c>
       <c r="J410" s="6" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="K410" t="s">
         <v>70</v>
@@ -15712,10 +15733,10 @@
         <v>32</v>
       </c>
       <c r="M410" t="s">
-        <v>956</v>
+        <v>376</v>
       </c>
       <c r="N410" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="Q410" s="6" t="s">
         <v>35</v>
@@ -15732,16 +15753,16 @@
     </row>
     <row r="412" spans="1:23">
       <c r="A412" s="9" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="B412" s="9" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>385</v>
+        <v>517</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="E412" s="6" t="s">
         <v>27</v>
@@ -15756,10 +15777,10 @@
         <v>28</v>
       </c>
       <c r="I412" s="6" t="s">
-        <v>29</v>
+        <v>579</v>
       </c>
       <c r="J412" s="6" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="K412" t="s">
         <v>70</v>
@@ -15768,10 +15789,10 @@
         <v>32</v>
       </c>
       <c r="M412" t="s">
-        <v>645</v>
+        <v>964</v>
       </c>
       <c r="N412" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="Q412" s="6" t="s">
         <v>35</v>
@@ -15788,16 +15809,16 @@
     </row>
     <row r="414" spans="1:23">
       <c r="A414" s="9" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="B414" s="9" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="C414" s="6" t="s">
-        <v>517</v>
+        <v>385</v>
       </c>
       <c r="D414" s="6" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="E414" s="6" t="s">
         <v>27</v>
@@ -15812,10 +15833,10 @@
         <v>28</v>
       </c>
       <c r="I414" s="6" t="s">
-        <v>835</v>
+        <v>29</v>
       </c>
       <c r="J414" s="6" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="K414" t="s">
         <v>70</v>
@@ -15824,10 +15845,10 @@
         <v>32</v>
       </c>
       <c r="M414" t="s">
-        <v>151</v>
+        <v>653</v>
       </c>
       <c r="N414" t="s">
-        <v>674</v>
+        <v>42</v>
       </c>
       <c r="Q414" s="6" t="s">
         <v>35</v>
@@ -15844,16 +15865,16 @@
     </row>
     <row r="416" spans="1:23">
       <c r="A416" s="9" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="B416" s="9" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>425</v>
+        <v>517</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="E416" s="6" t="s">
         <v>27</v>
@@ -15868,10 +15889,10 @@
         <v>28</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>935</v>
+        <v>843</v>
       </c>
       <c r="J416" s="6" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="K416" t="s">
         <v>70</v>
@@ -15880,10 +15901,10 @@
         <v>32</v>
       </c>
       <c r="M416" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="N416" t="s">
-        <v>136</v>
+        <v>682</v>
       </c>
       <c r="Q416" s="6" t="s">
         <v>35</v>
@@ -15900,16 +15921,16 @@
     </row>
     <row r="418" spans="1:23">
       <c r="A418" s="9" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="B418" s="9" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>909</v>
+        <v>425</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="E418" s="6" t="s">
         <v>27</v>
@@ -15924,10 +15945,10 @@
         <v>28</v>
       </c>
       <c r="I418" s="6" t="s">
-        <v>29</v>
+        <v>943</v>
       </c>
       <c r="J418" s="6" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="K418" t="s">
         <v>70</v>
@@ -15956,16 +15977,16 @@
     </row>
     <row r="420" spans="1:23">
       <c r="A420" s="9" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="B420" s="9" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>975</v>
+        <v>917</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>971</v>
+        <v>979</v>
       </c>
       <c r="E420" s="6" t="s">
         <v>27</v>
@@ -15983,7 +16004,7 @@
         <v>29</v>
       </c>
       <c r="J420" s="6" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="K420" t="s">
         <v>70</v>
@@ -15995,7 +16016,7 @@
         <v>57</v>
       </c>
       <c r="N420" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="Q420" s="6" t="s">
         <v>35</v>
@@ -16012,13 +16033,13 @@
     </row>
     <row r="422" spans="1:23">
       <c r="A422" s="9" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="B422" s="9" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>597</v>
+        <v>983</v>
       </c>
       <c r="D422" s="6" t="s">
         <v>979</v>
@@ -16039,45 +16060,45 @@
         <v>29</v>
       </c>
       <c r="J422" s="6" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="K422" t="s">
         <v>70</v>
       </c>
       <c r="L422" t="s">
-        <v>981</v>
+        <v>32</v>
       </c>
       <c r="M422" t="s">
-        <v>376</v>
+        <v>57</v>
       </c>
       <c r="N422" t="s">
-        <v>136</v>
-      </c>
-      <c r="O422" t="s">
-        <v>982</v>
-      </c>
-      <c r="P422" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="Q422" s="6" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="S422" s="7" t="s">
-        <v>67</v>
+        <v>35</v>
+      </c>
+      <c r="T422" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W422" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:23">
       <c r="A424" s="9" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B424" s="9" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>985</v>
+        <v>597</v>
       </c>
       <c r="D424" s="6" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E424" s="6" t="s">
         <v>27</v>
@@ -16092,7 +16113,7 @@
         <v>28</v>
       </c>
       <c r="I424" s="6" t="s">
-        <v>987</v>
+        <v>29</v>
       </c>
       <c r="J424" s="6" t="s">
         <v>988</v>
@@ -16101,16 +16122,19 @@
         <v>70</v>
       </c>
       <c r="L424" t="s">
-        <v>981</v>
+        <v>989</v>
       </c>
       <c r="M424" t="s">
-        <v>914</v>
+        <v>376</v>
       </c>
       <c r="N424" t="s">
-        <v>201</v>
+        <v>136</v>
+      </c>
+      <c r="O424" t="s">
+        <v>990</v>
       </c>
       <c r="P424" t="s">
-        <v>989</v>
+        <v>66</v>
       </c>
       <c r="Q424" s="6" t="s">
         <v>67</v>
@@ -16121,16 +16145,16 @@
     </row>
     <row r="426" spans="1:23">
       <c r="A426" s="9" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B426" s="9" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E426" s="6" t="s">
         <v>27</v>
@@ -16145,48 +16169,45 @@
         <v>28</v>
       </c>
       <c r="I426" s="6" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="J426" s="6" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="K426" t="s">
         <v>70</v>
       </c>
       <c r="L426" t="s">
-        <v>32</v>
+        <v>989</v>
       </c>
       <c r="M426" t="s">
-        <v>995</v>
+        <v>922</v>
       </c>
       <c r="N426" t="s">
-        <v>65</v>
+        <v>201</v>
+      </c>
+      <c r="P426" t="s">
+        <v>997</v>
       </c>
       <c r="Q426" s="6" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="S426" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T426" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W426" t="b">
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="428" spans="1:23">
       <c r="A428" s="9" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B428" s="9" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="C428" s="6" t="s">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="D428" s="6" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="E428" s="6" t="s">
         <v>27</v>
@@ -16201,10 +16222,10 @@
         <v>28</v>
       </c>
       <c r="I428" s="6" t="s">
-        <v>579</v>
+        <v>995</v>
       </c>
       <c r="J428" s="6" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="K428" t="s">
         <v>70</v>
@@ -16213,10 +16234,10 @@
         <v>32</v>
       </c>
       <c r="M428" t="s">
-        <v>903</v>
+        <v>1003</v>
       </c>
       <c r="N428" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="Q428" s="6" t="s">
         <v>35</v>
@@ -16233,16 +16254,16 @@
     </row>
     <row r="430" spans="1:23">
       <c r="A430" s="9" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="B430" s="9" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="C430" s="6" t="s">
-        <v>1002</v>
+        <v>38</v>
       </c>
       <c r="D430" s="6" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="E430" s="6" t="s">
         <v>27</v>
@@ -16257,10 +16278,10 @@
         <v>28</v>
       </c>
       <c r="I430" s="6" t="s">
-        <v>935</v>
+        <v>579</v>
       </c>
       <c r="J430" s="6" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="K430" t="s">
         <v>70</v>
@@ -16269,10 +16290,10 @@
         <v>32</v>
       </c>
       <c r="M430" t="s">
-        <v>1005</v>
+        <v>911</v>
       </c>
       <c r="N430" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="Q430" s="6" t="s">
         <v>35</v>
@@ -16289,16 +16310,16 @@
     </row>
     <row r="432" spans="1:23">
       <c r="A432" s="9" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B432" s="9" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C432" s="6" t="s">
-        <v>532</v>
+        <v>1010</v>
       </c>
       <c r="D432" s="6" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="E432" s="6" t="s">
         <v>27</v>
@@ -16313,10 +16334,10 @@
         <v>28</v>
       </c>
       <c r="I432" s="6" t="s">
-        <v>579</v>
+        <v>943</v>
       </c>
       <c r="J432" s="6" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="K432" t="s">
         <v>70</v>
@@ -16325,10 +16346,10 @@
         <v>32</v>
       </c>
       <c r="M432" t="s">
-        <v>167</v>
+        <v>1013</v>
       </c>
       <c r="N432" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="Q432" s="6" t="s">
         <v>35</v>
@@ -16345,16 +16366,16 @@
     </row>
     <row r="434" spans="1:23">
       <c r="A434" s="9" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="B434" s="9" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="C434" s="6" t="s">
-        <v>661</v>
+        <v>532</v>
       </c>
       <c r="D434" s="6" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="E434" s="6" t="s">
         <v>27</v>
@@ -16369,10 +16390,10 @@
         <v>28</v>
       </c>
       <c r="I434" s="6" t="s">
-        <v>29</v>
+        <v>579</v>
       </c>
       <c r="J434" s="6" t="s">
-        <v>498</v>
+        <v>1017</v>
       </c>
       <c r="K434" t="s">
         <v>70</v>
@@ -16381,7 +16402,7 @@
         <v>32</v>
       </c>
       <c r="M434" t="s">
-        <v>311</v>
+        <v>167</v>
       </c>
       <c r="N434" t="s">
         <v>42</v>
@@ -16401,16 +16422,16 @@
     </row>
     <row r="436" spans="1:23">
       <c r="A436" s="9" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="B436" s="9" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="C436" s="6" t="s">
-        <v>636</v>
+        <v>669</v>
       </c>
       <c r="D436" s="6" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="E436" s="6" t="s">
         <v>27</v>
@@ -16425,10 +16446,10 @@
         <v>28</v>
       </c>
       <c r="I436" s="6" t="s">
-        <v>579</v>
+        <v>29</v>
       </c>
       <c r="J436" s="6" t="s">
-        <v>1016</v>
+        <v>498</v>
       </c>
       <c r="K436" t="s">
         <v>70</v>
@@ -16437,10 +16458,10 @@
         <v>32</v>
       </c>
       <c r="M436" t="s">
-        <v>956</v>
+        <v>311</v>
       </c>
       <c r="N436" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="Q436" s="6" t="s">
         <v>35</v>
@@ -16457,16 +16478,16 @@
     </row>
     <row r="438" spans="1:23">
       <c r="A438" s="9" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="B438" s="9" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="C438" s="6" t="s">
-        <v>1019</v>
+        <v>636</v>
       </c>
       <c r="D438" s="6" t="s">
-        <v>566</v>
+        <v>1023</v>
       </c>
       <c r="E438" s="6" t="s">
         <v>27</v>
@@ -16481,10 +16502,10 @@
         <v>28</v>
       </c>
       <c r="I438" s="6" t="s">
-        <v>935</v>
+        <v>579</v>
       </c>
       <c r="J438" s="6" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="K438" t="s">
         <v>70</v>
@@ -16493,10 +16514,10 @@
         <v>32</v>
       </c>
       <c r="M438" t="s">
-        <v>33</v>
+        <v>964</v>
       </c>
       <c r="N438" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="Q438" s="6" t="s">
         <v>35</v>
@@ -16513,16 +16534,16 @@
     </row>
     <row r="440" spans="1:23">
       <c r="A440" s="9" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="B440" s="9" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="C440" s="6" t="s">
-        <v>240</v>
+        <v>1027</v>
       </c>
       <c r="D440" s="6" t="s">
-        <v>671</v>
+        <v>566</v>
       </c>
       <c r="E440" s="6" t="s">
         <v>27</v>
@@ -16537,10 +16558,10 @@
         <v>28</v>
       </c>
       <c r="I440" s="6" t="s">
-        <v>29</v>
+        <v>943</v>
       </c>
       <c r="J440" s="6" t="s">
-        <v>498</v>
+        <v>1028</v>
       </c>
       <c r="K440" t="s">
         <v>70</v>
@@ -16549,10 +16570,10 @@
         <v>32</v>
       </c>
       <c r="M440" t="s">
-        <v>395</v>
+        <v>33</v>
       </c>
       <c r="N440" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="Q440" s="6" t="s">
         <v>35</v>
@@ -16569,16 +16590,16 @@
     </row>
     <row r="442" spans="1:23">
       <c r="A442" s="9" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="B442" s="9" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>574</v>
+        <v>240</v>
       </c>
       <c r="D442" s="6" t="s">
-        <v>1025</v>
+        <v>679</v>
       </c>
       <c r="E442" s="6" t="s">
         <v>27</v>
@@ -16593,10 +16614,10 @@
         <v>28</v>
       </c>
       <c r="I442" s="6" t="s">
-        <v>935</v>
+        <v>29</v>
       </c>
       <c r="J442" s="6" t="s">
-        <v>1026</v>
+        <v>498</v>
       </c>
       <c r="K442" t="s">
         <v>70</v>
@@ -16605,10 +16626,10 @@
         <v>32</v>
       </c>
       <c r="M442" t="s">
-        <v>914</v>
+        <v>395</v>
       </c>
       <c r="N442" t="s">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="Q442" s="6" t="s">
         <v>35</v>
@@ -16625,16 +16646,16 @@
     </row>
     <row r="444" spans="1:23">
       <c r="A444" s="9" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="B444" s="9" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="C444" s="6" t="s">
-        <v>119</v>
+        <v>574</v>
       </c>
       <c r="D444" s="6" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="E444" s="6" t="s">
         <v>27</v>
@@ -16649,10 +16670,10 @@
         <v>28</v>
       </c>
       <c r="I444" s="6" t="s">
-        <v>579</v>
+        <v>943</v>
       </c>
       <c r="J444" s="6" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="K444" t="s">
         <v>70</v>
@@ -16661,10 +16682,10 @@
         <v>32</v>
       </c>
       <c r="M444" t="s">
-        <v>1031</v>
+        <v>922</v>
       </c>
       <c r="N444" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="Q444" s="6" t="s">
         <v>35</v>
@@ -16681,16 +16702,16 @@
     </row>
     <row r="446" spans="1:23">
       <c r="A446" s="9" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="B446" s="9" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="C446" s="6" t="s">
-        <v>687</v>
+        <v>119</v>
       </c>
       <c r="D446" s="6" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="E446" s="6" t="s">
         <v>27</v>
@@ -16699,16 +16720,16 @@
         <v>28</v>
       </c>
       <c r="G446" s="6" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="H446" s="6" t="s">
-        <v>1035</v>
+        <v>28</v>
       </c>
       <c r="I446" s="6" t="s">
-        <v>29</v>
+        <v>579</v>
       </c>
       <c r="J446" s="6" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="K446" t="s">
         <v>70</v>
@@ -16717,30 +16738,36 @@
         <v>32</v>
       </c>
       <c r="M446" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="N446" t="s">
-        <v>1038</v>
+        <v>227</v>
       </c>
       <c r="Q446" s="6" t="s">
         <v>35</v>
       </c>
       <c r="S446" s="7" t="s">
-        <v>67</v>
+        <v>35</v>
+      </c>
+      <c r="T446" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W446" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:23">
       <c r="A448" s="9" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B448" s="9" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C448" s="6" t="s">
         <v>416</v>
       </c>
       <c r="D448" s="6" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E448" s="6" t="s">
         <v>27</v>
@@ -16767,7 +16794,7 @@
         <v>32</v>
       </c>
       <c r="M448" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="N448" t="s">
         <v>42</v>
@@ -16787,16 +16814,16 @@
     </row>
     <row r="450" spans="1:23">
       <c r="A450" s="9" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B450" s="9" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D450" s="6" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E450" s="6" t="s">
         <v>27</v>
@@ -16843,16 +16870,16 @@
     </row>
     <row r="452" spans="1:23">
       <c r="A452" s="9" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B452" s="9" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C452" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D452" s="6" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E452" s="6" t="s">
         <v>27</v>
@@ -16867,10 +16894,10 @@
         <v>28</v>
       </c>
       <c r="I452" s="6" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="J452" s="6" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="K452" t="s">
         <v>70</v>
@@ -16879,7 +16906,7 @@
         <v>32</v>
       </c>
       <c r="M452" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="N452" t="s">
         <v>34</v>
@@ -16899,16 +16926,16 @@
     </row>
     <row r="454" spans="1:23">
       <c r="A454" s="9" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B454" s="9" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C454" s="6" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D454" s="6" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="E454" s="6" t="s">
         <v>27</v>
@@ -16923,10 +16950,10 @@
         <v>28</v>
       </c>
       <c r="I454" s="6" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="J454" s="6" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="K454" t="s">
         <v>70</v>
@@ -16935,7 +16962,7 @@
         <v>32</v>
       </c>
       <c r="M454" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="N454" t="s">
         <v>201</v>
@@ -16955,16 +16982,16 @@
     </row>
     <row r="456" spans="1:23">
       <c r="A456" s="9" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B456" s="9" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D456" s="6" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E456" s="6" t="s">
         <v>27</v>
@@ -17011,16 +17038,16 @@
     </row>
     <row r="458" spans="1:23">
       <c r="A458" s="9" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B458" s="9" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C458" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D458" s="6" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E458" s="6" t="s">
         <v>27</v>
@@ -17067,13 +17094,13 @@
     </row>
     <row r="460" spans="1:23">
       <c r="A460" s="9" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B460" s="9" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D460" s="6" t="s">
         <v>620</v>
@@ -17091,10 +17118,10 @@
         <v>28</v>
       </c>
       <c r="I460" s="6" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="J460" s="6" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="K460" t="s">
         <v>70</v>
@@ -17103,7 +17130,7 @@
         <v>32</v>
       </c>
       <c r="M460" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="N460" t="s">
         <v>57</v>
@@ -17123,16 +17150,16 @@
     </row>
     <row r="462" spans="1:23">
       <c r="A462" s="9" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B462" s="9" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D462" s="6" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="E462" s="6" t="s">
         <v>27</v>
@@ -17147,10 +17174,10 @@
         <v>28</v>
       </c>
       <c r="I462" s="6" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="J462" s="6" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="K462" t="s">
         <v>70</v>
@@ -17179,16 +17206,16 @@
     </row>
     <row r="464" spans="1:23">
       <c r="A464" s="9" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B464" s="9" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D464" s="6" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="E464" s="6" t="s">
         <v>27</v>
@@ -17206,7 +17233,7 @@
         <v>29</v>
       </c>
       <c r="J464" s="6" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="K464" t="s">
         <v>70</v>
@@ -17215,7 +17242,7 @@
         <v>32</v>
       </c>
       <c r="M464" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="N464" t="s">
         <v>48</v>
@@ -17235,16 +17262,16 @@
     </row>
     <row r="466" spans="1:23">
       <c r="A466" s="9" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B466" s="9" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
       <c r="D466" s="6" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="E466" s="6" t="s">
         <v>27</v>
@@ -17259,10 +17286,10 @@
         <v>28</v>
       </c>
       <c r="I466" s="6" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="J466" s="6" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="K466" t="s">
         <v>70</v>
@@ -17291,16 +17318,16 @@
     </row>
     <row r="468" spans="1:23">
       <c r="A468" s="9" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B468" s="9" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C468" s="6" t="s">
         <v>155</v>
       </c>
       <c r="D468" s="6" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="E468" s="6" t="s">
         <v>27</v>
@@ -17318,7 +17345,7 @@
         <v>579</v>
       </c>
       <c r="J468" s="6" t="s">
-        <v>999</v>
+        <v>1007</v>
       </c>
       <c r="K468" t="s">
         <v>70</v>
@@ -17327,7 +17354,7 @@
         <v>32</v>
       </c>
       <c r="M468" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="N468" t="s">
         <v>42</v>
@@ -17347,16 +17374,16 @@
     </row>
     <row r="470" spans="1:23">
       <c r="A470" s="9" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B470" s="9" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C470" s="6" t="s">
         <v>508</v>
       </c>
       <c r="D470" s="6" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E470" s="6" t="s">
         <v>27</v>
@@ -17383,7 +17410,7 @@
         <v>32</v>
       </c>
       <c r="M470" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="N470" t="s">
         <v>42</v>
@@ -17403,16 +17430,16 @@
     </row>
     <row r="472" spans="1:23">
       <c r="A472" s="9" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B472" s="9" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C472" s="6" t="s">
         <v>532</v>
       </c>
       <c r="D472" s="6" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="E472" s="6" t="s">
         <v>27</v>
@@ -17427,10 +17454,10 @@
         <v>28</v>
       </c>
       <c r="I472" s="6" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="J472" s="6" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="K472" t="s">
         <v>70</v>
@@ -17459,16 +17486,16 @@
     </row>
     <row r="474" spans="1:23">
       <c r="A474" s="9" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B474" s="9" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C474" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D474" s="6" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="E474" s="6" t="s">
         <v>27</v>
@@ -17483,10 +17510,10 @@
         <v>28</v>
       </c>
       <c r="I474" s="6" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="J474" s="6" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="K474" t="s">
         <v>70</v>
@@ -17515,16 +17542,16 @@
     </row>
     <row r="476" spans="1:23">
       <c r="A476" s="9" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B476" s="9" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D476" s="6" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="E476" s="6" t="s">
         <v>27</v>
@@ -17539,10 +17566,10 @@
         <v>28</v>
       </c>
       <c r="I476" s="6" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="J476" s="6" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="K476" t="s">
         <v>70</v>
@@ -17551,7 +17578,7 @@
         <v>32</v>
       </c>
       <c r="M476" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="N476" t="s">
         <v>72</v>
@@ -17841,8 +17868,8 @@
     <hyperlink ref="B271" r:id="rId274"/>
     <hyperlink ref="A273" r:id="rId275"/>
     <hyperlink ref="B273" r:id="rId276"/>
-    <hyperlink ref="A274" r:id="rId277"/>
-    <hyperlink ref="B274" r:id="rId278"/>
+    <hyperlink ref="A275" r:id="rId277"/>
+    <hyperlink ref="B275" r:id="rId278"/>
     <hyperlink ref="A276" r:id="rId279"/>
     <hyperlink ref="B276" r:id="rId280"/>
     <hyperlink ref="A278" r:id="rId281"/>
@@ -18052,7 +18079,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18125,7 +18152,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="9" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>53</v>
@@ -18149,19 +18176,19 @@
         <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="K2" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="N2" t="s">
         <v>136</v>
@@ -18169,7 +18196,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="9" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>133</v>
@@ -18196,16 +18223,16 @@
         <v>29</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="K4" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="L4" t="s">
         <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="N4" t="s">
         <v>136</v>
@@ -18213,16 +18240,16 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="9" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>27</v>
@@ -18237,24 +18264,24 @@
         <v>28</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="K6" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="L6" t="s">
         <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="N6" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="9" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>325</v>
@@ -18278,19 +18305,19 @@
         <v>28</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="K8" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="L8" t="s">
         <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N8" t="s">
         <v>152</v>
@@ -18298,22 +18325,22 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="9" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>884</v>
+        <v>355</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>885</v>
+        <v>101</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>886</v>
+        <v>356</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>27</v>
+        <v>452</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>28</v>
+        <v>1116</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>27</v>
@@ -18322,33 +18349,36 @@
         <v>28</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>29</v>
+        <v>1101</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>1117</v>
       </c>
       <c r="K10" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="L10" t="s">
-        <v>63</v>
+        <v>1118</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1119</v>
       </c>
       <c r="N10" t="s">
-        <v>98</v>
-      </c>
-      <c r="P10" t="s">
-        <v>276</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="9" t="s">
-        <v>1115</v>
+        <v>1121</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>91</v>
+        <v>893</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>27</v>
@@ -18366,15 +18396,56 @@
         <v>29</v>
       </c>
       <c r="K12" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="L12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" t="s">
-        <v>899</v>
+        <v>63</v>
       </c>
       <c r="N12" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1103</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" t="s">
+        <v>907</v>
+      </c>
+      <c r="N14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -18392,6 +18463,8 @@
     <hyperlink ref="B10" r:id="rId10"/>
     <hyperlink ref="A12" r:id="rId11"/>
     <hyperlink ref="B12" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="B14" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18472,16 +18545,16 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="9" t="s">
-        <v>1116</v>
+        <v>1123</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>27</v>
@@ -18496,10 +18569,10 @@
         <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>1117</v>
+        <v>1124</v>
       </c>
       <c r="K2" t="s">
-        <v>1118</v>
+        <v>1125</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>
@@ -18513,16 +18586,16 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="9" t="s">
-        <v>1119</v>
+        <v>1126</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>978</v>
+        <v>986</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>597</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>27</v>
@@ -18537,10 +18610,10 @@
         <v>28</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>1117</v>
+        <v>1124</v>
       </c>
       <c r="K4" t="s">
-        <v>1118</v>
+        <v>1125</v>
       </c>
       <c r="L4" t="s">
         <v>32</v>
@@ -18554,16 +18627,16 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="9" t="s">
-        <v>1120</v>
+        <v>1127</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>27</v>
@@ -18578,10 +18651,10 @@
         <v>28</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>1117</v>
+        <v>1124</v>
       </c>
       <c r="K6" t="s">
-        <v>1118</v>
+        <v>1125</v>
       </c>
       <c r="L6" t="s">
         <v>32</v>
@@ -18595,16 +18668,16 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="9" t="s">
-        <v>1121</v>
+        <v>1128</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>27</v>
@@ -18619,10 +18692,10 @@
         <v>28</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>1117</v>
+        <v>1124</v>
       </c>
       <c r="K8" t="s">
-        <v>1118</v>
+        <v>1125</v>
       </c>
       <c r="L8" t="s">
         <v>32</v>
